--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.4460523080713</v>
+        <v>16.75560066666667</v>
       </c>
       <c r="H2">
-        <v>3.4460523080713</v>
+        <v>50.266802</v>
       </c>
       <c r="I2">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950116</v>
       </c>
       <c r="J2">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950115</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N2">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P2">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q2">
-        <v>181.019007589983</v>
+        <v>936.776344483368</v>
       </c>
       <c r="R2">
-        <v>181.019007589983</v>
+        <v>8430.987100350312</v>
       </c>
       <c r="S2">
-        <v>0.4950676885029187</v>
+        <v>0.581251847815042</v>
       </c>
       <c r="T2">
-        <v>0.4950676885029187</v>
+        <v>0.5812518478150419</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.4460523080713</v>
+        <v>16.75560066666667</v>
       </c>
       <c r="H3">
-        <v>3.4460523080713</v>
+        <v>50.266802</v>
       </c>
       <c r="I3">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950116</v>
       </c>
       <c r="J3">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950115</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N3">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P3">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q3">
-        <v>18.19109945996037</v>
+        <v>89.98890236605067</v>
       </c>
       <c r="R3">
-        <v>18.19109945996037</v>
+        <v>809.9001212944561</v>
       </c>
       <c r="S3">
-        <v>0.04975071778853141</v>
+        <v>0.05583639690641551</v>
       </c>
       <c r="T3">
-        <v>0.04975071778853141</v>
+        <v>0.05583639690641551</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.4460523080713</v>
+        <v>16.75560066666667</v>
       </c>
       <c r="H4">
-        <v>3.4460523080713</v>
+        <v>50.266802</v>
       </c>
       <c r="I4">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950116</v>
       </c>
       <c r="J4">
-        <v>0.7608082091941479</v>
+        <v>0.9064438825950115</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N4">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P4">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q4">
-        <v>78.97558390295129</v>
+        <v>434.1078497413491</v>
       </c>
       <c r="R4">
-        <v>78.97558390295129</v>
+        <v>3906.970647672142</v>
       </c>
       <c r="S4">
-        <v>0.2159898029026979</v>
+        <v>0.269355637873554</v>
       </c>
       <c r="T4">
-        <v>0.2159898029026979</v>
+        <v>0.269355637873554</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.0234516866129257</v>
+        <v>0.07688299999999999</v>
       </c>
       <c r="H5">
-        <v>0.0234516866129257</v>
+        <v>0.230649</v>
       </c>
       <c r="I5">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="J5">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N5">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O5">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P5">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q5">
-        <v>1.231902669335589</v>
+        <v>4.298394138516</v>
       </c>
       <c r="R5">
-        <v>1.231902669335589</v>
+        <v>38.685547246644</v>
       </c>
       <c r="S5">
-        <v>0.003369122475524463</v>
+        <v>0.002667071548468344</v>
       </c>
       <c r="T5">
-        <v>0.003369122475524463</v>
+        <v>0.002667071548468344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.0234516866129257</v>
+        <v>0.07688299999999999</v>
       </c>
       <c r="H6">
-        <v>0.0234516866129257</v>
+        <v>0.230649</v>
       </c>
       <c r="I6">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="J6">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N6">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O6">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P6">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q6">
-        <v>0.1237972977602073</v>
+        <v>0.412913682908</v>
       </c>
       <c r="R6">
-        <v>0.1237972977602073</v>
+        <v>3.716223146172001</v>
       </c>
       <c r="S6">
-        <v>0.0003385724121517328</v>
+        <v>0.0002562050617436898</v>
       </c>
       <c r="T6">
-        <v>0.0003385724121517328</v>
+        <v>0.0002562050617436898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.0234516866129257</v>
+        <v>0.07688299999999999</v>
       </c>
       <c r="H7">
-        <v>0.0234516866129257</v>
+        <v>0.230649</v>
       </c>
       <c r="I7">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="J7">
-        <v>0.005177587018273784</v>
+        <v>0.004159213770485276</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N7">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O7">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P7">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q7">
-        <v>0.5374586565116388</v>
+        <v>1.991901960164333</v>
       </c>
       <c r="R7">
-        <v>0.5374586565116388</v>
+        <v>17.927117641479</v>
       </c>
       <c r="S7">
-        <v>0.001469892130597588</v>
+        <v>0.001235937160273243</v>
       </c>
       <c r="T7">
-        <v>0.001469892130597588</v>
+        <v>0.001235937160273243</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.05995857738946</v>
+        <v>1.652500333333333</v>
       </c>
       <c r="H8">
-        <v>1.05995857738946</v>
+        <v>4.957501</v>
       </c>
       <c r="I8">
-        <v>0.2340142037875783</v>
+        <v>0.0893969036345032</v>
       </c>
       <c r="J8">
-        <v>0.2340142037875783</v>
+        <v>0.08939690363450319</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.529384758903</v>
+        <v>55.908252</v>
       </c>
       <c r="N8">
-        <v>52.529384758903</v>
+        <v>167.724756</v>
       </c>
       <c r="O8">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="P8">
-        <v>0.6507128636628369</v>
+        <v>0.6412441619121594</v>
       </c>
       <c r="Q8">
-        <v>55.6789719401904</v>
+        <v>92.388405066084</v>
       </c>
       <c r="R8">
-        <v>55.6789719401904</v>
+        <v>831.4956455947561</v>
       </c>
       <c r="S8">
-        <v>0.1522760526843938</v>
+        <v>0.05732524254864908</v>
       </c>
       <c r="T8">
-        <v>0.1522760526843938</v>
+        <v>0.05732524254864907</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.05995857738946</v>
+        <v>1.652500333333333</v>
       </c>
       <c r="H9">
-        <v>1.05995857738946</v>
+        <v>4.957501</v>
       </c>
       <c r="I9">
-        <v>0.2340142037875783</v>
+        <v>0.0893969036345032</v>
       </c>
       <c r="J9">
-        <v>0.2340142037875783</v>
+        <v>0.08939690363450319</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.27882279016874</v>
+        <v>5.370676</v>
       </c>
       <c r="N9">
-        <v>5.27882279016874</v>
+        <v>16.112028</v>
       </c>
       <c r="O9">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="P9">
-        <v>0.06539193082738635</v>
+        <v>0.06159939735768789</v>
       </c>
       <c r="Q9">
-        <v>5.595333494958318</v>
+        <v>8.875043880225334</v>
       </c>
       <c r="R9">
-        <v>5.595333494958318</v>
+        <v>79.87539492202801</v>
       </c>
       <c r="S9">
-        <v>0.01530264062670321</v>
+        <v>0.005506795389528695</v>
       </c>
       <c r="T9">
-        <v>0.01530264062670321</v>
+        <v>0.005506795389528695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.05995857738946</v>
+        <v>1.652500333333333</v>
       </c>
       <c r="H10">
-        <v>1.05995857738946</v>
+        <v>4.957501</v>
       </c>
       <c r="I10">
-        <v>0.2340142037875783</v>
+        <v>0.0893969036345032</v>
       </c>
       <c r="J10">
-        <v>0.2340142037875783</v>
+        <v>0.08939690363450319</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.9176973657584</v>
+        <v>25.90822366666667</v>
       </c>
       <c r="N10">
-        <v>22.9176973657584</v>
+        <v>77.724671</v>
       </c>
       <c r="O10">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="P10">
-        <v>0.2838952055097768</v>
+        <v>0.2971564407301527</v>
       </c>
       <c r="Q10">
-        <v>24.29180989685145</v>
+        <v>42.81334824524122</v>
       </c>
       <c r="R10">
-        <v>24.29180989685145</v>
+        <v>385.320134207171</v>
       </c>
       <c r="S10">
-        <v>0.06643551047648132</v>
+        <v>0.02656486569632542</v>
       </c>
       <c r="T10">
-        <v>0.06643551047648132</v>
+        <v>0.02656486569632542</v>
       </c>
     </row>
   </sheetData>
